--- a/Scores.xlsx
+++ b/Scores.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="104">
   <si>
     <t xml:space="preserve">Test data is self-collected (35.44% contaminated)</t>
   </si>
@@ -71,9 +71,6 @@
   </si>
   <si>
     <t xml:space="preserve">Average</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Multimodal</t>
   </si>
   <si>
     <t xml:space="preserve">NF-CSE-CIC-IDS2018-v2 DGI Model
@@ -120,10 +117,10 @@
     <t xml:space="preserve">IF</t>
   </si>
   <si>
-    <t xml:space="preserve">Anomal-E-PCA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anomal-E-RF</t>
+    <t xml:space="preserve">Embeddings-PCA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Embeddings-RF</t>
   </si>
   <si>
     <t xml:space="preserve">Brute Force – XSS</t>
@@ -132,10 +129,10 @@
     <t xml:space="preserve">CBLOF</t>
   </si>
   <si>
-    <t xml:space="preserve">Fusion-Anomal-E-PCA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fusion-Anomal-E-RF</t>
+    <t xml:space="preserve">Fusion-PCA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fusion-RF</t>
   </si>
   <si>
     <t xml:space="preserve">DDOS attack – HOIC</t>
@@ -147,7 +144,7 @@
     <t xml:space="preserve">Raw-Features-IF</t>
   </si>
   <si>
-    <t xml:space="preserve">Anomal-E-IF</t>
+    <t xml:space="preserve">Embeddings-IF</t>
   </si>
   <si>
     <t xml:space="preserve">Raw-Features-XGBoost</t>
@@ -156,10 +153,10 @@
     <t xml:space="preserve">DDOS attack – LOIC-UDP</t>
   </si>
   <si>
-    <t xml:space="preserve">Fusion-Anomal-E-IF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anomal-E-XGBoost</t>
+    <t xml:space="preserve">Fusion-IF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Embeddings-XGBoost</t>
   </si>
   <si>
     <t xml:space="preserve">DDOS attack – LOIC-HTTP</t>
@@ -174,10 +171,10 @@
     <t xml:space="preserve">NF-CSE-CIC-IDS2018-v2 DGI Model and Self-Collected-NF-CSE-CICIDS Train + Test (35.44% contamination).</t>
   </si>
   <si>
-    <t xml:space="preserve">Anomal-E-CBLOF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fusion-Anomal-E-XGBoost</t>
+    <t xml:space="preserve">Embeddings-CBLOF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fusion-XGBoost</t>
   </si>
   <si>
     <t xml:space="preserve">DoS attacks – GoldenEye</t>
@@ -186,7 +183,7 @@
     <t xml:space="preserve">Raw-Features-CBLOF</t>
   </si>
   <si>
-    <t xml:space="preserve">Fusion-Anomal-E-CBLOF</t>
+    <t xml:space="preserve">Fusion-CBLOF</t>
   </si>
   <si>
     <t xml:space="preserve">Raw-Features-CatBoost</t>
@@ -195,19 +192,19 @@
     <t xml:space="preserve">DoS attacks – Hulk</t>
   </si>
   <si>
-    <t xml:space="preserve">Anomal-E-HBOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anomal-E-CatBoost</t>
+    <t xml:space="preserve">Embeddings-HBOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Embeddings-CatBoost</t>
   </si>
   <si>
     <t xml:space="preserve">DoS attacks - SlowHTTPTest</t>
   </si>
   <si>
-    <t xml:space="preserve">Fusion-Anomal-E-HBOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fusion-Anomal-E-CatBoost</t>
+    <t xml:space="preserve">Fusion-HBOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fusion-CatBoost</t>
   </si>
   <si>
     <t xml:space="preserve">DoS attacks - Slowloris</t>
@@ -216,19 +213,19 @@
     <t xml:space="preserve">Raw-Features-HBOS</t>
   </si>
   <si>
-    <t xml:space="preserve">Raw-Features-ExtraTree</t>
+    <t xml:space="preserve">Raw-Features-ExtraTrees</t>
   </si>
   <si>
     <t xml:space="preserve">FTP – BruteForce</t>
   </si>
   <si>
-    <t xml:space="preserve">Anomal-E-ExtraTree</t>
+    <t xml:space="preserve">Embeddings-ExtraTree</t>
   </si>
   <si>
     <t xml:space="preserve">Infilteration</t>
   </si>
   <si>
-    <t xml:space="preserve">Fusion-Anomal-E-ExtraTree</t>
+    <t xml:space="preserve">Fusion-ExtraTree</t>
   </si>
   <si>
     <t xml:space="preserve">SQL Injection</t>
@@ -731,8 +728,8 @@
   </sheetPr>
   <dimension ref="B3:CT96"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="W22" activeCellId="0" sqref="W22"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A61" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AW36" activeCellId="0" sqref="AW36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -854,18 +851,18 @@
       <c r="AU8" s="3"/>
       <c r="AV8" s="3"/>
       <c r="AW8" s="3" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="AX8" s="3"/>
       <c r="AY8" s="3"/>
       <c r="BC8" s="4"/>
       <c r="BD8" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BE8" s="5"/>
       <c r="BF8" s="5"/>
       <c r="BG8" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BH8" s="5"/>
       <c r="BI8" s="5"/>
@@ -908,7 +905,7 @@
         <v>16</v>
       </c>
       <c r="CF8" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="CG8" s="8" t="n">
         <v>63554</v>
@@ -923,118 +920,118 @@
     <row r="9" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B9" s="2"/>
       <c r="C9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="E9" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="F9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="H9" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H9" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="I9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J9" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J9" s="2" t="s">
+      <c r="K9" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q9" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="Q9" s="2" t="s">
+      <c r="R9" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="R9" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="S9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="T9" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="T9" s="2" t="s">
+      <c r="U9" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="U9" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="Y9" s="4"/>
       <c r="Z9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA9" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="AA9" s="2" t="s">
+      <c r="AB9" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="AB9" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="AC9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD9" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="AD9" s="2" t="s">
+      <c r="AE9" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="AE9" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="AF9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG9" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="AG9" s="2" t="s">
+      <c r="AH9" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="AH9" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="AI9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AJ9" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="AJ9" s="2" t="s">
+      <c r="AK9" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="AK9" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="AL9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AM9" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="AM9" s="2" t="s">
+      <c r="AN9" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="AN9" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="AO9" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AS9" s="2"/>
       <c r="AT9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AU9" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="AU9" s="2" t="s">
+      <c r="AV9" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="AV9" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="AW9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AX9" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="AX9" s="2" t="s">
+      <c r="AY9" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="AY9" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="BC9" s="4"/>
       <c r="BD9" s="5"/>
@@ -1046,55 +1043,55 @@
       <c r="BJ9" s="6"/>
       <c r="BN9" s="4"/>
       <c r="BO9" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BP9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="BQ9" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="BQ9" s="2" t="s">
+      <c r="BR9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="BS9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="BT9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="BU9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="BV9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="BW9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="BX9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="BY9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="BZ9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="CA9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="CB9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="CC9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="CD9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="CF9" s="0" t="s">
         <v>25</v>
-      </c>
-      <c r="BR9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="BS9" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="BT9" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="BU9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="BV9" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="BW9" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="BX9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="BY9" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="BZ9" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="CA9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="CB9" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="CC9" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="CD9" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="CF9" s="0" t="s">
-        <v>26</v>
       </c>
       <c r="CG9" s="0" t="n">
         <v>0</v>
@@ -1108,7 +1105,7 @@
     </row>
     <row r="10" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B10" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C10" s="9" t="n">
         <v>0.9445</v>
@@ -1138,7 +1135,7 @@
         <v>0.6201</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="P10" s="9" t="n">
         <v>0.8563</v>
@@ -1159,7 +1156,7 @@
         <v>1</v>
       </c>
       <c r="Y10" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Z10" s="11" t="n">
         <f aca="false">C10</f>
@@ -1226,7 +1223,7 @@
         <v>0.6744</v>
       </c>
       <c r="AS10" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AT10" s="9" t="n">
         <v>0.4899</v>
@@ -1248,28 +1245,28 @@
       </c>
       <c r="BC10" s="4"/>
       <c r="BD10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="BE10" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="BE10" s="2" t="s">
+      <c r="BF10" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="BF10" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="BG10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="BH10" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="BH10" s="2" t="s">
+      <c r="BI10" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="BI10" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="BJ10" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BN10" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BO10" s="13" t="n">
         <v>0.8697</v>
@@ -1321,7 +1318,7 @@
         <v>0.830575</v>
       </c>
       <c r="CF10" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="CG10" s="8" t="n">
         <v>14510</v>
@@ -1335,7 +1332,7 @@
     </row>
     <row r="11" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B11" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C11" s="9" t="n">
         <v>0.8964</v>
@@ -1365,7 +1362,7 @@
         <v>0.7055</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P11" s="9" t="n">
         <v>0.9312</v>
@@ -1386,7 +1383,7 @@
         <v>1</v>
       </c>
       <c r="Y11" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Z11" s="15" t="n">
         <f aca="false">F10</f>
@@ -1453,7 +1450,7 @@
         <v>0.71994</v>
       </c>
       <c r="AS11" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AT11" s="9" t="n">
         <v>0.5869</v>
@@ -1474,7 +1471,7 @@
         <v>0.0116</v>
       </c>
       <c r="BC11" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="BD11" s="13" t="n">
         <f aca="false">AT10</f>
@@ -1505,7 +1502,7 @@
         <v>0.371</v>
       </c>
       <c r="BN11" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="BO11" s="13" t="n">
         <v>0.0339</v>
@@ -1557,7 +1554,7 @@
         <v>0.628425</v>
       </c>
       <c r="CF11" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="CG11" s="8" t="n">
         <v>8403</v>
@@ -1571,7 +1568,7 @@
     </row>
     <row r="12" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B12" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C12" s="9" t="n">
         <v>0.9412</v>
@@ -1601,7 +1598,7 @@
         <v>1</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P12" s="9" t="n">
         <v>0.8644</v>
@@ -1622,7 +1619,7 @@
         <v>1</v>
       </c>
       <c r="Y12" s="19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Z12" s="20" t="n">
         <f aca="false">I10</f>
@@ -1689,7 +1686,7 @@
         <v>0.74718</v>
       </c>
       <c r="AS12" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AT12" s="9" t="n">
         <v>0.4899</v>
@@ -1710,7 +1707,7 @@
         <v>0.3307</v>
       </c>
       <c r="BC12" s="19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="BD12" s="21" t="n">
         <f aca="false">AW10</f>
@@ -1741,7 +1738,7 @@
         <v>0.43695</v>
       </c>
       <c r="BN12" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="BO12" s="13" t="n">
         <v>0.8276</v>
@@ -1793,7 +1790,7 @@
         <v>0.8467</v>
       </c>
       <c r="CF12" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="CG12" s="0" t="n">
         <v>0</v>
@@ -1807,7 +1804,7 @@
     </row>
     <row r="13" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B13" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C13" s="9" t="n">
         <v>0.9447</v>
@@ -1837,7 +1834,7 @@
         <v>0.8736</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P13" s="9" t="n">
         <v>0.9081</v>
@@ -1858,7 +1855,7 @@
         <v>1</v>
       </c>
       <c r="Y13" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Z13" s="22" t="n">
         <f aca="false">C11</f>
@@ -1925,7 +1922,7 @@
         <v>0.70816</v>
       </c>
       <c r="AS13" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AT13" s="9" t="n">
         <v>0.5681</v>
@@ -1946,7 +1943,7 @@
         <v>0.4412</v>
       </c>
       <c r="BC13" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="BD13" s="15" t="n">
         <f aca="false">AT11</f>
@@ -1977,7 +1974,7 @@
         <v>0.5081</v>
       </c>
       <c r="BN13" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="BO13" s="11" t="n">
         <v>0.8773</v>
@@ -2029,7 +2026,7 @@
         <v>0.85405</v>
       </c>
       <c r="CF13" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="CG13" s="0" t="n">
         <v>0</v>
@@ -2043,7 +2040,7 @@
     </row>
     <row r="14" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="Y14" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Z14" s="16" t="n">
         <f aca="false">F11</f>
@@ -2110,7 +2107,7 @@
         <v>0.75458</v>
       </c>
       <c r="BC14" s="19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="BD14" s="21" t="n">
         <f aca="false">AW11</f>
@@ -2141,7 +2138,7 @@
         <v>0.402</v>
       </c>
       <c r="BN14" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="BO14" s="15" t="n">
         <v>0.1239</v>
@@ -2193,7 +2190,7 @@
         <v>0.619875</v>
       </c>
       <c r="CF14" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="CG14" s="0" t="n">
         <v>0</v>
@@ -2207,13 +2204,13 @@
     </row>
     <row r="15" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E15" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="O15" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="O15" s="0" t="s">
-        <v>48</v>
-      </c>
       <c r="Y15" s="19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Z15" s="21" t="n">
         <f aca="false">I11</f>
@@ -2280,10 +2277,10 @@
         <v>0.75204</v>
       </c>
       <c r="AR15" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="BC15" s="14" t="s">
         <v>49</v>
-      </c>
-      <c r="BC15" s="14" t="s">
-        <v>50</v>
       </c>
       <c r="BD15" s="15" t="n">
         <f aca="false">AT12</f>
@@ -2314,7 +2311,7 @@
         <v>0.371</v>
       </c>
       <c r="BN15" s="19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="BO15" s="21" t="n">
         <v>0.8344</v>
@@ -2366,7 +2363,7 @@
         <v>0.857475</v>
       </c>
       <c r="CF15" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="CG15" s="8" t="n">
         <v>49023</v>
@@ -2380,7 +2377,7 @@
     </row>
     <row r="16" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="Y16" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Z16" s="11" t="n">
         <f aca="false">C12</f>
@@ -2447,7 +2444,7 @@
         <v>0.71118</v>
       </c>
       <c r="BC16" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="BD16" s="21" t="n">
         <f aca="false">AW12</f>
@@ -2478,7 +2475,7 @@
         <v>0.61545</v>
       </c>
       <c r="BN16" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="BO16" s="11" t="n">
         <v>0.8673</v>
@@ -2530,7 +2527,7 @@
         <v>0.835775</v>
       </c>
       <c r="CF16" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="CG16" s="8" t="n">
         <v>28674</v>
@@ -2571,7 +2568,7 @@
       <c r="T17" s="3"/>
       <c r="U17" s="3"/>
       <c r="Y17" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Z17" s="15" t="n">
         <f aca="false">F12</f>
@@ -2644,12 +2641,12 @@
       <c r="AU17" s="3"/>
       <c r="AV17" s="3"/>
       <c r="AW17" s="3" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="AX17" s="3"/>
       <c r="AY17" s="3"/>
       <c r="BC17" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="BD17" s="15" t="n">
         <f aca="false">AT13</f>
@@ -2680,7 +2677,7 @@
         <v>0.48665</v>
       </c>
       <c r="BN17" s="14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="BO17" s="15" t="n">
         <v>0.0957</v>
@@ -2732,7 +2729,7 @@
         <v>0.65315</v>
       </c>
       <c r="CF17" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="CG17" s="8" t="n">
         <v>17043</v>
@@ -2747,53 +2744,53 @@
     <row r="18" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B18" s="2"/>
       <c r="C18" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="E18" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E18" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="F18" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G18" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G18" s="2" t="s">
+      <c r="H18" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H18" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="I18" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J18" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J18" s="2" t="s">
+      <c r="K18" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="K18" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q18" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="Q18" s="2" t="s">
+      <c r="R18" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="R18" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="S18" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="T18" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="T18" s="2" t="s">
+      <c r="U18" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="U18" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="Y18" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Z18" s="20" t="n">
         <f aca="false">I12</f>
@@ -2861,25 +2858,25 @@
       </c>
       <c r="AS18" s="2"/>
       <c r="AT18" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AU18" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="AU18" s="2" t="s">
+      <c r="AV18" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="AV18" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="AW18" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AX18" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="AX18" s="2" t="s">
+      <c r="AY18" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="AY18" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="BC18" s="19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="BD18" s="21" t="n">
         <f aca="false">AW13</f>
@@ -2910,7 +2907,7 @@
         <v>0.48455</v>
       </c>
       <c r="BN18" s="19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="BO18" s="21" t="n">
         <v>0.8055</v>
@@ -2962,7 +2959,7 @@
         <v>0.8779</v>
       </c>
       <c r="CF18" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="CG18" s="8" t="n">
         <v>25787</v>
@@ -2976,7 +2973,7 @@
     </row>
     <row r="19" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B19" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C19" s="9" t="n">
         <v>0.9111</v>
@@ -3006,7 +3003,7 @@
         <v>0.9329</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="P19" s="9" t="n">
         <v>0.9985</v>
@@ -3027,7 +3024,7 @@
         <v>0.9944</v>
       </c>
       <c r="Y19" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Z19" s="22" t="n">
         <f aca="false">C13</f>
@@ -3094,7 +3091,7 @@
         <v>0.69394</v>
       </c>
       <c r="AS19" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AT19" s="9" t="n">
         <v>0.4899</v>
@@ -3123,7 +3120,7 @@
       <c r="BI19" s="1"/>
       <c r="BJ19" s="1"/>
       <c r="BN19" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="BO19" s="11" t="n">
         <v>0.884</v>
@@ -3175,7 +3172,7 @@
         <v>0.85865</v>
       </c>
       <c r="CF19" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="CG19" s="8" t="n">
         <v>3655</v>
@@ -3189,7 +3186,7 @@
     </row>
     <row r="20" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B20" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C20" s="9" t="n">
         <v>0.9146</v>
@@ -3219,7 +3216,7 @@
         <v>0.9961</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P20" s="9" t="n">
         <v>0.9984</v>
@@ -3240,7 +3237,7 @@
         <v>1</v>
       </c>
       <c r="Y20" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z20" s="16" t="n">
         <f aca="false">F13</f>
@@ -3307,7 +3304,7 @@
         <v>0.7554</v>
       </c>
       <c r="AS20" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AT20" s="9" t="n">
         <v>0.5489</v>
@@ -3333,7 +3330,7 @@
       <c r="BI20" s="1"/>
       <c r="BJ20" s="1"/>
       <c r="BN20" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="BO20" s="15" t="n">
         <v>0.0635</v>
@@ -3385,7 +3382,7 @@
         <v>0.6463</v>
       </c>
       <c r="CF20" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="CG20" s="8" t="n">
         <v>25097</v>
@@ -3399,7 +3396,7 @@
     </row>
     <row r="21" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B21" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C21" s="9" t="n">
         <v>0.9528</v>
@@ -3429,7 +3426,7 @@
         <v>1</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P21" s="9" t="n">
         <v>0.999</v>
@@ -3450,7 +3447,7 @@
         <v>0.6563</v>
       </c>
       <c r="Y21" s="19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Z21" s="21" t="n">
         <f aca="false">I13</f>
@@ -3517,7 +3514,7 @@
         <v>0.76434</v>
       </c>
       <c r="AS21" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AT21" s="9" t="n">
         <v>0.5681</v>
@@ -3543,7 +3540,7 @@
       <c r="BI21" s="1"/>
       <c r="BJ21" s="1"/>
       <c r="BN21" s="19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="BO21" s="21" t="n">
         <v>0.701</v>
@@ -3595,7 +3592,7 @@
         <v>0.859725</v>
       </c>
       <c r="CF21" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="CG21" s="8" t="n">
         <v>2428</v>
@@ -3609,7 +3606,7 @@
     </row>
     <row r="22" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B22" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C22" s="9" t="n">
         <v>0.9159</v>
@@ -3639,7 +3636,7 @@
         <v>0.9721</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P22" s="9" t="n">
         <v>0.999</v>
@@ -3674,7 +3671,7 @@
       <c r="AK22" s="1"/>
       <c r="AL22" s="1"/>
       <c r="AS22" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AT22" s="9" t="n">
         <v>0.5681</v>
@@ -3695,14 +3692,14 @@
         <v>0.2621</v>
       </c>
       <c r="BC22" s="0" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="BN22" s="1"/>
       <c r="BO22" s="1"/>
       <c r="BP22" s="1"/>
       <c r="BQ22" s="1"/>
       <c r="CF22" s="24" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="CG22" s="8" t="n">
         <v>248</v>
@@ -3759,12 +3756,12 @@
       <c r="AK24" s="1"/>
       <c r="BC24" s="4"/>
       <c r="BD24" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BE24" s="5"/>
       <c r="BF24" s="5"/>
       <c r="BG24" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BH24" s="5"/>
       <c r="BI24" s="5"/>
@@ -3784,10 +3781,10 @@
     </row>
     <row r="25" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E25" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="O25" s="0" t="s">
         <v>72</v>
-      </c>
-      <c r="O25" s="0" t="s">
-        <v>73</v>
       </c>
       <c r="Y25" s="1"/>
       <c r="Z25" s="1"/>
@@ -3803,7 +3800,7 @@
       <c r="AJ25" s="1"/>
       <c r="AK25" s="1"/>
       <c r="AR25" s="0" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="BC25" s="4"/>
       <c r="BD25" s="5"/>
@@ -3827,38 +3824,38 @@
     <row r="26" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="Y26" s="1"/>
       <c r="Z26" s="0" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="BC26" s="4"/>
       <c r="BD26" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="BE26" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="BE26" s="2" t="s">
+      <c r="BF26" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="BF26" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="BG26" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="BH26" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="BH26" s="2" t="s">
+      <c r="BI26" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="BI26" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="BJ26" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BK26" s="1"/>
       <c r="BL26" s="1"/>
       <c r="BM26" s="1"/>
       <c r="CG26" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="CH26" s="24" t="s">
         <v>75</v>
-      </c>
-      <c r="CH26" s="24" t="s">
-        <v>76</v>
       </c>
       <c r="CR26" s="25"/>
     </row>
@@ -3897,12 +3894,12 @@
       <c r="AU27" s="3"/>
       <c r="AV27" s="3"/>
       <c r="AW27" s="3" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="AX27" s="3"/>
       <c r="AY27" s="3"/>
       <c r="BC27" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="BD27" s="15" t="n">
         <f aca="false">AT19</f>
@@ -3933,7 +3930,7 @@
         <v>0.42115</v>
       </c>
       <c r="CF27" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="CG27" s="7" t="n">
         <v>2299</v>
@@ -3947,50 +3944,50 @@
     <row r="28" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B28" s="2"/>
       <c r="C28" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D28" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="E28" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E28" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="F28" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G28" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G28" s="2" t="s">
+      <c r="H28" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H28" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="I28" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J28" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J28" s="2" t="s">
+      <c r="K28" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="K28" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q28" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="Q28" s="2" t="s">
+      <c r="R28" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="R28" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="S28" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="T28" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="T28" s="2" t="s">
+      <c r="U28" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="U28" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="Y28" s="4"/>
       <c r="Z28" s="3" t="s">
@@ -4023,25 +4020,25 @@
       </c>
       <c r="AS28" s="2"/>
       <c r="AT28" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AU28" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="AU28" s="2" t="s">
+      <c r="AV28" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="AV28" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="AW28" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AX28" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="AX28" s="2" t="s">
+      <c r="AY28" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="AY28" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="BC28" s="19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="BD28" s="21" t="n">
         <f aca="false">AW19</f>
@@ -4072,7 +4069,7 @@
         <v>0.44445</v>
       </c>
       <c r="CF28" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="CG28" s="7" t="n">
         <v>2169</v>
@@ -4084,7 +4081,7 @@
     </row>
     <row r="29" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B29" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C29" s="9" t="n">
         <v>0.8826</v>
@@ -4114,7 +4111,7 @@
         <v>0.8268</v>
       </c>
       <c r="O29" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="P29" s="9" t="n">
         <v>0.8691</v>
@@ -4136,55 +4133,55 @@
       </c>
       <c r="Y29" s="4"/>
       <c r="Z29" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA29" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="AA29" s="2" t="s">
+      <c r="AB29" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="AB29" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="AC29" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD29" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="AD29" s="2" t="s">
+      <c r="AE29" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="AE29" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="AF29" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG29" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="AG29" s="2" t="s">
+      <c r="AH29" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="AH29" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="AI29" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AJ29" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="AJ29" s="2" t="s">
+      <c r="AK29" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="AK29" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="AL29" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AM29" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="AM29" s="2" t="s">
+      <c r="AN29" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="AN29" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="AO29" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AS29" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AT29" s="9" t="n">
         <v>0.3544</v>
@@ -4205,7 +4202,7 @@
         <v>0.0103</v>
       </c>
       <c r="BC29" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="BD29" s="15" t="n">
         <f aca="false">AT20</f>
@@ -4236,7 +4233,7 @@
         <v>0.45585</v>
       </c>
       <c r="CF29" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="CG29" s="7" t="n">
         <v>45904</v>
@@ -4248,7 +4245,7 @@
     </row>
     <row r="30" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B30" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C30" s="9" t="n">
         <v>0.9275</v>
@@ -4278,7 +4275,7 @@
         <v>0.8264</v>
       </c>
       <c r="O30" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P30" s="9" t="n">
         <v>0.8696</v>
@@ -4299,7 +4296,7 @@
         <v>0.0006</v>
       </c>
       <c r="Y30" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Z30" s="11" t="n">
         <f aca="false">C19</f>
@@ -4366,7 +4363,7 @@
         <v>0.62854</v>
       </c>
       <c r="AS30" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AT30" s="9" t="n">
         <v>0.5681</v>
@@ -4387,7 +4384,7 @@
         <v>0.012</v>
       </c>
       <c r="BC30" s="19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="BD30" s="21" t="n">
         <f aca="false">AW20</f>
@@ -4418,7 +4415,7 @@
         <v>0.40115</v>
       </c>
       <c r="CF30" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="CG30" s="7" t="n">
         <v>5794</v>
@@ -4430,7 +4427,7 @@
     </row>
     <row r="31" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B31" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C31" s="9" t="n">
         <v>0.9441</v>
@@ -4460,7 +4457,7 @@
         <v>0.8866</v>
       </c>
       <c r="O31" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P31" s="9" t="n">
         <v>0.7507</v>
@@ -4481,7 +4478,7 @@
         <v>0.2942</v>
       </c>
       <c r="Y31" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Z31" s="15" t="n">
         <f aca="false">F19</f>
@@ -4548,7 +4545,7 @@
         <v>0.75804</v>
       </c>
       <c r="AS31" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AT31" s="9" t="n">
         <v>0.3544</v>
@@ -4569,7 +4566,7 @@
         <v>0.3309</v>
       </c>
       <c r="BC31" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="BD31" s="15" t="n">
         <f aca="false">AT21</f>
@@ -4600,7 +4597,7 @@
         <v>0.48535</v>
       </c>
       <c r="CF31" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="CG31" s="7" t="n">
         <v>31551</v>
@@ -4612,7 +4609,7 @@
     </row>
     <row r="32" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B32" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C32" s="9" t="n">
         <v>0.9273</v>
@@ -4642,7 +4639,7 @@
         <v>0.8266</v>
       </c>
       <c r="O32" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P32" s="9" t="n">
         <v>0.8692</v>
@@ -4663,7 +4660,7 @@
         <v>0.0458</v>
       </c>
       <c r="Y32" s="19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Z32" s="20" t="n">
         <f aca="false">I19</f>
@@ -4730,7 +4727,7 @@
         <v>0.75726</v>
       </c>
       <c r="AS32" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AT32" s="9" t="n">
         <v>0.5247</v>
@@ -4751,7 +4748,7 @@
         <v>0.499</v>
       </c>
       <c r="BC32" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="BD32" s="21" t="n">
         <f aca="false">AW21</f>
@@ -4782,7 +4779,7 @@
         <v>0.45025</v>
       </c>
       <c r="CF32" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="CG32" s="7" t="n">
         <v>22310</v>
@@ -4794,7 +4791,7 @@
     </row>
     <row r="33" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="Y33" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Z33" s="11" t="n">
         <f aca="false">C20</f>
@@ -4861,10 +4858,10 @@
         <v>0.652</v>
       </c>
       <c r="AV33" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="BC33" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="BD33" s="15" t="n">
         <f aca="false">AT22</f>
@@ -4895,7 +4892,7 @@
         <v>0.48535</v>
       </c>
       <c r="CF33" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="CG33" s="7" t="n">
         <v>16560</v>
@@ -4907,13 +4904,13 @@
     </row>
     <row r="34" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E34" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="O34" s="0" t="s">
         <v>84</v>
       </c>
-      <c r="O34" s="0" t="s">
-        <v>85</v>
-      </c>
       <c r="Y34" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Z34" s="15" t="n">
         <f aca="false">F20</f>
@@ -4980,10 +4977,10 @@
         <v>0.76466</v>
       </c>
       <c r="AR34" s="0" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="BC34" s="19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="BD34" s="21" t="n">
         <f aca="false">AW22</f>
@@ -5014,7 +5011,7 @@
         <v>0.48195</v>
       </c>
       <c r="CF34" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="CG34" s="7" t="n">
         <v>12779</v>
@@ -5026,7 +5023,7 @@
     </row>
     <row r="35" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="Y35" s="19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Z35" s="21" t="n">
         <f aca="false">I20</f>
@@ -5093,7 +5090,7 @@
         <v>0.7633</v>
       </c>
       <c r="CF35" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="CG35" s="7" t="n">
         <v>1427</v>
@@ -5132,7 +5129,7 @@
       <c r="T36" s="3"/>
       <c r="U36" s="3"/>
       <c r="Y36" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Z36" s="11" t="n">
         <f aca="false">C21</f>
@@ -5205,12 +5202,12 @@
       <c r="AU36" s="3"/>
       <c r="AV36" s="3"/>
       <c r="AW36" s="3" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="AX36" s="3"/>
       <c r="AY36" s="3"/>
       <c r="CF36" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="CG36" s="7" t="n">
         <v>164</v>
@@ -5223,53 +5220,53 @@
     <row r="37" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B37" s="2"/>
       <c r="C37" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D37" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="E37" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E37" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="F37" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G37" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G37" s="2" t="s">
+      <c r="H37" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H37" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="I37" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J37" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J37" s="2" t="s">
+      <c r="K37" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="K37" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q37" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="Q37" s="2" t="s">
+      <c r="R37" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="R37" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="S37" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="T37" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="T37" s="2" t="s">
+      <c r="U37" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="U37" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="Y37" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Z37" s="15" t="n">
         <f aca="false">F21</f>
@@ -5337,28 +5334,28 @@
       </c>
       <c r="AS37" s="2"/>
       <c r="AT37" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AU37" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="AU37" s="2" t="s">
+      <c r="AV37" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="AV37" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="AW37" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AX37" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="AX37" s="2" t="s">
+      <c r="AY37" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="AY37" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="CK37" s="8"/>
     </row>
     <row r="38" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B38" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C38" s="9" t="n">
         <v>0.853</v>
@@ -5388,7 +5385,7 @@
         <v>0.7902</v>
       </c>
       <c r="O38" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="P38" s="9" t="n">
         <v>0.8688</v>
@@ -5409,7 +5406,7 @@
         <v>0.5995</v>
       </c>
       <c r="Y38" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Z38" s="20" t="n">
         <f aca="false">I21</f>
@@ -5476,7 +5473,7 @@
         <v>0.72386</v>
       </c>
       <c r="AS38" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AT38" s="9" t="n">
         <v>0.3892</v>
@@ -5500,7 +5497,7 @@
     </row>
     <row r="39" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B39" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C39" s="9" t="n">
         <v>0.8605</v>
@@ -5530,7 +5527,7 @@
         <v>0.8851</v>
       </c>
       <c r="O39" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P39" s="9" t="n">
         <v>0.8691</v>
@@ -5551,7 +5548,7 @@
         <v>0.0001</v>
       </c>
       <c r="Y39" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Z39" s="11" t="n">
         <f aca="false">C22</f>
@@ -5618,7 +5615,7 @@
         <v>0.66014</v>
       </c>
       <c r="AS39" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AT39" s="9" t="n">
         <v>0.6463</v>
@@ -5642,7 +5639,7 @@
     </row>
     <row r="40" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B40" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C40" s="9" t="n">
         <v>0.9457</v>
@@ -5672,7 +5669,7 @@
         <v>0.5453</v>
       </c>
       <c r="O40" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P40" s="9" t="n">
         <v>0.7249</v>
@@ -5693,7 +5690,7 @@
         <v>0.0706</v>
       </c>
       <c r="Y40" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z40" s="16" t="n">
         <f aca="false">F22</f>
@@ -5760,7 +5757,7 @@
         <v>0.75824</v>
       </c>
       <c r="AS40" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AT40" s="9" t="n">
         <v>0.4899</v>
@@ -5784,7 +5781,7 @@
     </row>
     <row r="41" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B41" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C41" s="9" t="n">
         <v>0.8823</v>
@@ -5814,7 +5811,7 @@
         <v>0.8855</v>
       </c>
       <c r="O41" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P41" s="9" t="n">
         <v>0.8688</v>
@@ -5835,7 +5832,7 @@
         <v>0.0465</v>
       </c>
       <c r="Y41" s="19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Z41" s="21" t="n">
         <f aca="false">I22</f>
@@ -5902,7 +5899,7 @@
         <v>0.759</v>
       </c>
       <c r="AS41" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AT41" s="9" t="n">
         <v>0.4899</v>
@@ -5929,13 +5926,13 @@
     </row>
     <row r="43" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E43" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="O43" s="0" t="s">
         <v>90</v>
       </c>
-      <c r="O43" s="0" t="s">
+      <c r="Z43" s="0" t="s">
         <v>91</v>
-      </c>
-      <c r="Z43" s="0" t="s">
-        <v>92</v>
       </c>
       <c r="CT43" s="8"/>
     </row>
@@ -5972,22 +5969,22 @@
       <c r="U45" s="3"/>
       <c r="Y45" s="4"/>
       <c r="Z45" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AA45" s="5"/>
       <c r="AB45" s="5"/>
       <c r="AC45" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AD45" s="5"/>
       <c r="AE45" s="5"/>
       <c r="AF45" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AG45" s="5"/>
       <c r="AH45" s="5"/>
       <c r="AI45" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ45" s="5"/>
       <c r="AK45" s="5"/>
@@ -5999,50 +5996,50 @@
     <row r="46" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B46" s="2"/>
       <c r="C46" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D46" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D46" s="2" t="s">
+      <c r="E46" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E46" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="F46" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G46" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G46" s="2" t="s">
+      <c r="H46" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H46" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="I46" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J46" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J46" s="2" t="s">
+      <c r="K46" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="K46" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q46" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="Q46" s="2" t="s">
+      <c r="R46" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="R46" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="S46" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="T46" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="T46" s="2" t="s">
+      <c r="U46" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="U46" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="Y46" s="4"/>
       <c r="Z46" s="5"/>
@@ -6061,7 +6058,7 @@
     </row>
     <row r="47" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B47" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C47" s="9" t="n">
         <v>0.9873</v>
@@ -6091,7 +6088,7 @@
         <v>1</v>
       </c>
       <c r="O47" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="P47" s="9" t="n">
         <v>0.9889</v>
@@ -6113,48 +6110,48 @@
       </c>
       <c r="Y47" s="4"/>
       <c r="Z47" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA47" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="AA47" s="2" t="s">
+      <c r="AB47" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="AB47" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="AC47" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD47" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="AD47" s="2" t="s">
+      <c r="AE47" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="AE47" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="AF47" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG47" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="AG47" s="2" t="s">
+      <c r="AH47" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="AH47" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="AI47" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AJ47" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="AJ47" s="2" t="s">
+      <c r="AK47" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="AK47" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="AL47" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B48" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C48" s="9" t="n">
         <v>0.9806</v>
@@ -6184,7 +6181,7 @@
         <v>1</v>
       </c>
       <c r="O48" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P48" s="9" t="n">
         <v>0.999</v>
@@ -6205,7 +6202,7 @@
         <v>0.7423</v>
       </c>
       <c r="Y48" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Z48" s="17" t="n">
         <f aca="false">P10</f>
@@ -6262,7 +6259,7 @@
     </row>
     <row r="49" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B49" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C49" s="9" t="n">
         <v>0.9477</v>
@@ -6292,7 +6289,7 @@
         <v>1</v>
       </c>
       <c r="O49" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P49" s="9" t="n">
         <v>0.9889</v>
@@ -6313,7 +6310,7 @@
         <v>1</v>
       </c>
       <c r="Y49" s="19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Z49" s="20" t="n">
         <f aca="false">S10</f>
@@ -6370,7 +6367,7 @@
     </row>
     <row r="50" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B50" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C50" s="9" t="n">
         <v>0.9772</v>
@@ -6400,7 +6397,7 @@
         <v>1</v>
       </c>
       <c r="O50" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P50" s="9" t="n">
         <v>0.999</v>
@@ -6421,7 +6418,7 @@
         <v>0.8236</v>
       </c>
       <c r="Y50" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Z50" s="16" t="n">
         <f aca="false">P11</f>
@@ -6478,7 +6475,7 @@
     </row>
     <row r="51" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="Y51" s="19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Z51" s="21" t="n">
         <f aca="false">S11</f>
@@ -6535,13 +6532,13 @@
     </row>
     <row r="52" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E52" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="O52" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="O52" s="0" t="s">
-        <v>98</v>
-      </c>
       <c r="Y52" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Z52" s="15" t="n">
         <f aca="false">P12</f>
@@ -6598,7 +6595,7 @@
     </row>
     <row r="53" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="Y53" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Z53" s="20" t="n">
         <f aca="false">S12</f>
@@ -6682,7 +6679,7 @@
       <c r="T54" s="3"/>
       <c r="U54" s="3"/>
       <c r="Y54" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z54" s="16" t="n">
         <f aca="false">P13</f>
@@ -6740,53 +6737,53 @@
     <row r="55" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B55" s="2"/>
       <c r="C55" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D55" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D55" s="2" t="s">
+      <c r="E55" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E55" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="F55" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G55" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G55" s="2" t="s">
+      <c r="H55" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H55" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="I55" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J55" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J55" s="2" t="s">
+      <c r="K55" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="K55" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q55" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="Q55" s="2" t="s">
+      <c r="R55" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="R55" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="S55" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="T55" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="T55" s="2" t="s">
+      <c r="U55" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="U55" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="Y55" s="19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Z55" s="21" t="n">
         <f aca="false">S13</f>
@@ -6843,7 +6840,7 @@
     </row>
     <row r="56" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B56" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C56" s="9" t="n">
         <v>0.9655</v>
@@ -6873,7 +6870,7 @@
         <v>0.9717</v>
       </c>
       <c r="O56" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="P56" s="9" t="n">
         <v>0.999</v>
@@ -6910,7 +6907,7 @@
     </row>
     <row r="57" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B57" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C57" s="9" t="n">
         <v>0.9712</v>
@@ -6940,7 +6937,7 @@
         <v>0.9781</v>
       </c>
       <c r="O57" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P57" s="9" t="n">
         <v>0.999</v>
@@ -6977,7 +6974,7 @@
     </row>
     <row r="58" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B58" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C58" s="9" t="n">
         <v>0.9553</v>
@@ -7007,7 +7004,7 @@
         <v>0.953</v>
       </c>
       <c r="O58" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P58" s="9" t="n">
         <v>0.999</v>
@@ -7044,7 +7041,7 @@
     </row>
     <row r="59" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B59" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C59" s="9" t="n">
         <v>0.9682</v>
@@ -7074,7 +7071,7 @@
         <v>0.9808</v>
       </c>
       <c r="O59" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P59" s="9" t="n">
         <v>0.999</v>
@@ -7095,7 +7092,7 @@
         <v>0.989</v>
       </c>
       <c r="Z59" s="0" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AA59" s="1"/>
       <c r="AB59" s="1"/>
@@ -7113,29 +7110,29 @@
     <row r="60" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="61" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E61" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="O61" s="0" t="s">
         <v>99</v>
-      </c>
-      <c r="O61" s="0" t="s">
-        <v>100</v>
       </c>
       <c r="Y61" s="4"/>
       <c r="Z61" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AA61" s="5"/>
       <c r="AB61" s="5"/>
       <c r="AC61" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AD61" s="5"/>
       <c r="AE61" s="5"/>
       <c r="AF61" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AG61" s="5"/>
       <c r="AH61" s="5"/>
       <c r="AI61" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ61" s="5"/>
       <c r="AK61" s="5"/>
@@ -7189,95 +7186,95 @@
       <c r="U63" s="3"/>
       <c r="Y63" s="4"/>
       <c r="Z63" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA63" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="AA63" s="2" t="s">
+      <c r="AB63" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="AB63" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="AC63" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD63" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="AD63" s="2" t="s">
+      <c r="AE63" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="AE63" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="AF63" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG63" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="AG63" s="2" t="s">
+      <c r="AH63" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="AH63" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="AI63" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AJ63" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="AJ63" s="2" t="s">
+      <c r="AK63" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="AK63" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="AL63" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B64" s="2"/>
       <c r="C64" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D64" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D64" s="2" t="s">
+      <c r="E64" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E64" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="F64" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G64" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G64" s="2" t="s">
+      <c r="H64" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H64" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="I64" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J64" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J64" s="2" t="s">
+      <c r="K64" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="K64" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q64" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="Q64" s="2" t="s">
+      <c r="R64" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="R64" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="S64" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="T64" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="T64" s="2" t="s">
+      <c r="U64" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="U64" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="Y64" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Z64" s="15" t="n">
         <f aca="false">P19</f>
@@ -7334,7 +7331,7 @@
     </row>
     <row r="65" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B65" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C65" s="9" t="n">
         <v>0.7984</v>
@@ -7364,7 +7361,7 @@
         <v>0.0401</v>
       </c>
       <c r="O65" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="P65" s="9" t="n">
         <v>0.983</v>
@@ -7385,7 +7382,7 @@
         <v>0.8776</v>
       </c>
       <c r="Y65" s="19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Z65" s="20" t="n">
         <f aca="false">S19</f>
@@ -7442,7 +7439,7 @@
     </row>
     <row r="66" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B66" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C66" s="9" t="n">
         <v>0.8154</v>
@@ -7472,7 +7469,7 @@
         <v>0.041</v>
       </c>
       <c r="O66" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P66" s="9" t="n">
         <v>0.9782</v>
@@ -7493,7 +7490,7 @@
         <v>0.8452</v>
       </c>
       <c r="Y66" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Z66" s="15" t="n">
         <f aca="false">P20</f>
@@ -7550,7 +7547,7 @@
     </row>
     <row r="67" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B67" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C67" s="9" t="n">
         <v>0.8525</v>
@@ -7580,7 +7577,7 @@
         <v>0.483</v>
       </c>
       <c r="O67" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P67" s="9" t="n">
         <v>0.9829</v>
@@ -7601,7 +7598,7 @@
         <v>0.8917</v>
       </c>
       <c r="Y67" s="19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Z67" s="21" t="n">
         <f aca="false">S20</f>
@@ -7658,7 +7655,7 @@
     </row>
     <row r="68" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B68" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C68" s="9" t="n">
         <v>0.7574</v>
@@ -7688,7 +7685,7 @@
         <v>0.0371</v>
       </c>
       <c r="O68" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P68" s="9" t="n">
         <v>0.9843</v>
@@ -7709,7 +7706,7 @@
         <v>0.8728</v>
       </c>
       <c r="Y68" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Z68" s="15" t="n">
         <f aca="false">P21</f>
@@ -7766,13 +7763,13 @@
     </row>
     <row r="69" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="H69" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="R69" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Y69" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Z69" s="20" t="n">
         <f aca="false">S21</f>
@@ -7829,13 +7826,13 @@
     </row>
     <row r="70" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E70" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="O70" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="O70" s="0" t="s">
-        <v>102</v>
-      </c>
       <c r="Y70" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z70" s="16" t="n">
         <f aca="false">P22</f>
@@ -7892,7 +7889,7 @@
     </row>
     <row r="71" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="Y71" s="19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Z71" s="21" t="n">
         <f aca="false">S22</f>
@@ -7979,55 +7976,55 @@
     <row r="73" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B73" s="2"/>
       <c r="C73" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D73" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D73" s="2" t="s">
+      <c r="E73" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E73" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="F73" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G73" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G73" s="2" t="s">
+      <c r="H73" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H73" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="I73" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J73" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J73" s="2" t="s">
+      <c r="K73" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="K73" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="O73" s="2"/>
       <c r="P73" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q73" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="Q73" s="2" t="s">
+      <c r="R73" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="R73" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="S73" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="T73" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="T73" s="2" t="s">
+      <c r="U73" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="U73" s="2" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B74" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C74" s="9" t="n">
         <v>0.7966</v>
@@ -8057,7 +8054,7 @@
         <v>0.0351</v>
       </c>
       <c r="O74" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="P74" s="9" t="n">
         <v>0.9711</v>
@@ -8080,7 +8077,7 @@
     </row>
     <row r="75" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B75" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C75" s="9" t="n">
         <v>0.7437</v>
@@ -8110,7 +8107,7 @@
         <v>0.0406</v>
       </c>
       <c r="O75" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P75" s="9" t="n">
         <v>0.944</v>
@@ -8133,7 +8130,7 @@
     </row>
     <row r="76" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B76" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C76" s="9" t="n">
         <v>0.8179</v>
@@ -8163,7 +8160,7 @@
         <v>0.4525</v>
       </c>
       <c r="O76" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P76" s="9" t="n">
         <v>0.9781</v>
@@ -8186,7 +8183,7 @@
     </row>
     <row r="77" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B77" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C77" s="9" t="n">
         <v>0.8249</v>
@@ -8216,7 +8213,7 @@
         <v>0.0335</v>
       </c>
       <c r="O77" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P77" s="9" t="n">
         <v>0.9345</v>
@@ -8240,7 +8237,7 @@
     <row r="78" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="79" customFormat="false" ht="17.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E79" s="0" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="17.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -8265,36 +8262,36 @@
     <row r="82" customFormat="false" ht="17.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B82" s="2"/>
       <c r="C82" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D82" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D82" s="2" t="s">
+      <c r="E82" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E82" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="F82" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G82" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G82" s="2" t="s">
+      <c r="H82" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H82" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="I82" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J82" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J82" s="2" t="s">
+      <c r="K82" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="K82" s="2" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="17.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B83" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C83" s="9" t="n">
         <v>0.8921</v>
@@ -8326,7 +8323,7 @@
     </row>
     <row r="84" customFormat="false" ht="17.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B84" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C84" s="9" t="n">
         <v>0.8929</v>
@@ -8358,7 +8355,7 @@
     </row>
     <row r="85" customFormat="false" ht="17.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B85" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C85" s="9" t="n">
         <v>0.759</v>
@@ -8390,7 +8387,7 @@
     </row>
     <row r="86" customFormat="false" ht="17.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B86" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C86" s="9" t="n">
         <v>0.773</v>
@@ -8422,12 +8419,12 @@
     </row>
     <row r="87" customFormat="false" ht="17.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="H87" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="17.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E88" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="17.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -8452,36 +8449,36 @@
     <row r="91" customFormat="false" ht="17.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B91" s="2"/>
       <c r="C91" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D91" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D91" s="2" t="s">
+      <c r="E91" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E91" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="F91" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G91" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G91" s="2" t="s">
+      <c r="H91" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H91" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="I91" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J91" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J91" s="2" t="s">
+      <c r="K91" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="K91" s="2" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="17.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B92" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C92" s="9" t="n">
         <v>0.8919</v>
@@ -8513,7 +8510,7 @@
     </row>
     <row r="93" customFormat="false" ht="17.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B93" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C93" s="9" t="n">
         <v>0.8928</v>
@@ -8545,7 +8542,7 @@
     </row>
     <row r="94" customFormat="false" ht="17.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B94" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C94" s="9" t="n">
         <v>0.8259</v>
@@ -8577,7 +8574,7 @@
     </row>
     <row r="95" customFormat="false" ht="17.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B95" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C95" s="9" t="n">
         <v>0.8926</v>
